--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sprint #</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>The Scrum master collects and compiles this log by Sprint</t>
+  </si>
+  <si>
+    <t>Michael McGregor</t>
+  </si>
+  <si>
+    <t>Covered the project highlights for the propsal</t>
   </si>
 </sst>
 </file>
@@ -458,12 +464,13 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="77.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -489,9 +496,15 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Sprint #</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Covered the project highlights for the propsal</t>
+  </si>
+  <si>
+    <t>Will McLain</t>
+  </si>
+  <si>
+    <t>Covered the working agreement for the propsal</t>
   </si>
 </sst>
 </file>
@@ -507,9 +513,15 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Sprint #</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Covered the working agreement for the propsal</t>
+  </si>
+  <si>
+    <t>Helped Ryan with the looping background image for the level</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -524,9 +527,15 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Sprint #</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Helped Ryan with the looping background image for the level</t>
+  </si>
+  <si>
+    <t>General project debugging</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -538,9 +541,15 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Sprint #</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>General project debugging</t>
+  </si>
+  <si>
+    <t>Ryan Conyac</t>
+  </si>
+  <si>
+    <t>Edited video for proposal</t>
+  </si>
+  <si>
+    <t>Helped Younouss integrate key controller class</t>
   </si>
 </sst>
 </file>
@@ -473,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -523,21 +532,21 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,18 +557,30 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -630,6 +651,11 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Sprint #</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Helped Younouss integrate key controller class</t>
+  </si>
+  <si>
+    <t>Resolved merge conflicts</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -583,14 +586,26 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Sprint #</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Helped Younouss integrate key controller class</t>
+  </si>
+  <si>
+    <t>Edited video for sprint 1</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -583,9 +586,15 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Sprint #</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Edited video for sprint 1</t>
+  </si>
+  <si>
+    <t>Edited video for sprint 2</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,9 +600,15 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Sprint #</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Edited video for sprint 2</t>
+  </si>
+  <si>
+    <t>Integration debugging</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -611,14 +614,26 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Sprint #</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Integration debugging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code commenting and code cleanup </t>
   </si>
 </sst>
 </file>
@@ -636,9 +639,15 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Sprint #</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Integration debugging</t>
+  </si>
+  <si>
+    <t>Helped Ryan with the enemy collisions and debugging</t>
+  </si>
+  <si>
+    <t>Edited video for sprint 3</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -636,14 +642,26 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Sprint #</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t xml:space="preserve">Code commenting and code cleanup </t>
+  </si>
+  <si>
+    <t>Helped Will with debugging ship selection feature</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,9 +653,15 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Sprint #</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t xml:space="preserve">Code commenting and code cleanup </t>
+  </si>
+  <si>
+    <t>Video editing for sprint 3</t>
+  </si>
+  <si>
+    <t>Helped Ryan with collions for enemies</t>
+  </si>
+  <si>
+    <t>Helped Will with implementing ship select screen</t>
   </si>
 </sst>
 </file>
@@ -496,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,19 +659,37 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Sprint #</t>
   </si>
@@ -78,15 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">Code commenting and code cleanup </t>
-  </si>
-  <si>
-    <t>Video editing for sprint 3</t>
-  </si>
-  <si>
-    <t>Helped Ryan with collions for enemies</t>
-  </si>
-  <si>
-    <t>Helped Will with implementing ship select screen</t>
   </si>
 </sst>
 </file>
@@ -505,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -659,37 +650,19 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Sprint #</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t xml:space="preserve">Code commenting and code cleanup </t>
+  </si>
+  <si>
+    <t>Lead meeting while Ryan was out of town</t>
+  </si>
+  <si>
+    <t>Assigned duties for sprint 4</t>
   </si>
 </sst>
 </file>
@@ -497,7 +503,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,14 +656,26 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Sprint #</t>
   </si>
@@ -84,6 +79,9 @@
   </si>
   <si>
     <t>Assigned duties for sprint 4</t>
+  </si>
+  <si>
+    <t>Yuchen Feng</t>
   </si>
 </sst>
 </file>
@@ -506,24 +504,24 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="77.125" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="77.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="B4" s="1">
         <v>0</v>
       </c>
@@ -545,7 +543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -556,7 +554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="B6" s="1">
         <v>0</v>
       </c>
@@ -567,7 +565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -578,7 +576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" s="1">
         <v>1</v>
       </c>
@@ -589,7 +587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" s="1">
         <v>1</v>
       </c>
@@ -600,7 +598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" s="1">
         <v>1</v>
       </c>
@@ -611,7 +609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -622,7 +620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -633,7 +631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13" s="1">
         <v>2</v>
       </c>
@@ -644,7 +642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -655,7 +653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="B15" s="1">
         <v>4</v>
       </c>
@@ -666,7 +664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="1">
         <v>4</v>
       </c>
@@ -677,42 +675,48 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Sprint #</t>
   </si>
@@ -82,6 +87,24 @@
   </si>
   <si>
     <t>Yuchen Feng</t>
+  </si>
+  <si>
+    <t>Helped Ryan with integration of the weapon system for the enemies</t>
+  </si>
+  <si>
+    <t>Edited video for sprint 4</t>
+  </si>
+  <si>
+    <t>Edited video for sprint 3</t>
+  </si>
+  <si>
+    <t>Helped Ryan with collisions for enemies</t>
+  </si>
+  <si>
+    <t>Helped Will with implementing ship select screen</t>
+  </si>
+  <si>
+    <t>Helped Will with implementing ship damage and weapons</t>
   </si>
 </sst>
 </file>
@@ -121,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,6 +167,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -152,9 +186,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -498,30 +533,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="77.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="77.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>0</v>
       </c>
@@ -543,7 +578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -554,7 +589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>0</v>
       </c>
@@ -565,7 +600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -576,7 +611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1</v>
       </c>
@@ -587,7 +622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1</v>
       </c>
@@ -598,7 +633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>1</v>
       </c>
@@ -609,7 +644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -620,7 +655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -631,7 +666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>2</v>
       </c>
@@ -642,7 +677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -653,73 +688,124 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="1">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Sprint #</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Helped Will with implementing ship damage and weapons</t>
+  </si>
+  <si>
+    <t>Edited video for Sprint 5</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -788,9 +791,15 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>

--- a/Team Contribution Log.xlsx
+++ b/Team Contribution Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>Sprint #</t>
   </si>
@@ -108,12 +108,36 @@
   </si>
   <si>
     <t>Edited video for Sprint 5</t>
+  </si>
+  <si>
+    <t>last sprint</t>
+  </si>
+  <si>
+    <t>Helped Will debug player ships</t>
+  </si>
+  <si>
+    <t>Brian Davis</t>
+  </si>
+  <si>
+    <t>Worked on finishing the poster</t>
+  </si>
+  <si>
+    <t>Worked on formatting the abstract</t>
+  </si>
+  <si>
+    <t>Worked on writing the abstract</t>
+  </si>
+  <si>
+    <t>Worked on adding solution information for the abstract</t>
+  </si>
+  <si>
+    <t>Edit video for final presentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -189,10 +213,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -536,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -802,23 +827,107 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
